--- a/output/comment_robust_assoc.xlsx
+++ b/output/comment_robust_assoc.xlsx
@@ -426,25 +426,25 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>0.3831029598736117</v>
+        <v>0.3813163429625565</v>
       </c>
       <c r="C2">
-        <v>0.1163865275908196</v>
+        <v>0.1177440565795783</v>
       </c>
       <c r="D2">
-        <v>0.07718140248953838</v>
+        <v>0.07742587952206376</v>
       </c>
       <c r="E2">
-        <v>0.02617087679347055</v>
+        <v>0.02517704602916154</v>
       </c>
       <c r="F2">
-        <v>0.04701808152185265</v>
+        <v>0.04720780316704604</v>
       </c>
       <c r="G2">
-        <v>0.09937317906218461</v>
+        <v>0.09704083308496347</v>
       </c>
       <c r="H2">
-        <v>0.05462008087065725</v>
+        <v>0.05368239707888631</v>
       </c>
     </row>
     <row r="3" spans="1:8">
@@ -452,25 +452,25 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>0.1163865275908196</v>
+        <v>0.1177440565795783</v>
       </c>
       <c r="C3">
-        <v>0.4730994507038454</v>
+        <v>0.4710055762863097</v>
       </c>
       <c r="D3">
-        <v>0.1517001989776941</v>
+        <v>0.1517448409268158</v>
       </c>
       <c r="E3">
-        <v>0.04288589131704038</v>
+        <v>0.04127767039265137</v>
       </c>
       <c r="F3">
-        <v>0.09374613250288424</v>
+        <v>0.09291590256924667</v>
       </c>
       <c r="G3">
-        <v>0.07474687801692849</v>
+        <v>0.0724818211073246</v>
       </c>
       <c r="H3">
-        <v>0.1516983162656773</v>
+        <v>0.1494024393721274</v>
       </c>
     </row>
     <row r="4" spans="1:8">
@@ -478,25 +478,25 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>0.07718140248953838</v>
+        <v>0.07742587952206376</v>
       </c>
       <c r="C4">
-        <v>0.1517001989776941</v>
+        <v>0.1517448409268158</v>
       </c>
       <c r="D4">
-        <v>0.465033712798477</v>
+        <v>0.4616168627942282</v>
       </c>
       <c r="E4">
-        <v>0.005825526947514282</v>
+        <v>0.005598558365143595</v>
       </c>
       <c r="F4">
-        <v>0.06266835563321319</v>
+        <v>0.06323426642290403</v>
       </c>
       <c r="G4">
-        <v>0.007376483050041947</v>
+        <v>0.007152953260646737</v>
       </c>
       <c r="H4">
-        <v>0.1230441326949445</v>
+        <v>0.1212711749278065</v>
       </c>
     </row>
     <row r="5" spans="1:8">
@@ -504,25 +504,25 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>0.02617087679347055</v>
+        <v>0.02517704602916154</v>
       </c>
       <c r="C5">
-        <v>0.04288589131704038</v>
+        <v>0.04127767039265137</v>
       </c>
       <c r="D5">
-        <v>0.005825526947514282</v>
+        <v>0.005598558365143595</v>
       </c>
       <c r="E5">
-        <v>0.6876633654411433</v>
+        <v>0.6928658642944356</v>
       </c>
       <c r="F5">
-        <v>0.06565939842068458</v>
+        <v>0.06375622745196909</v>
       </c>
       <c r="G5">
-        <v>0.02327528027528027</v>
+        <v>0.05080701865184624</v>
       </c>
       <c r="H5">
-        <v>0.05100429117843325</v>
+        <v>0.04911524335700979</v>
       </c>
     </row>
     <row r="6" spans="1:8">
@@ -530,25 +530,25 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>0.04701808152185265</v>
+        <v>0.04720780316704604</v>
       </c>
       <c r="C6">
-        <v>0.09374613250288424</v>
+        <v>0.09291590256924667</v>
       </c>
       <c r="D6">
-        <v>0.06266835563321319</v>
+        <v>0.06323426642290403</v>
       </c>
       <c r="E6">
-        <v>0.06565939842068458</v>
+        <v>0.06375622745196909</v>
       </c>
       <c r="F6">
-        <v>0.5638335974040818</v>
+        <v>0.5659611781474456</v>
       </c>
       <c r="G6">
-        <v>0.02060705805814607</v>
+        <v>0.02006476705661591</v>
       </c>
       <c r="H6">
-        <v>0.05732768651294895</v>
+        <v>0.06083608088974201</v>
       </c>
     </row>
     <row r="7" spans="1:8">
@@ -556,22 +556,22 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>0.09937317906218461</v>
+        <v>0.09704083308496347</v>
       </c>
       <c r="C7">
-        <v>0.07474687801692849</v>
+        <v>0.0724818211073246</v>
       </c>
       <c r="D7">
-        <v>0.007376483050041947</v>
+        <v>0.007152953260646737</v>
       </c>
       <c r="E7">
-        <v>0.02327528027528027</v>
+        <v>0.05080701865184624</v>
       </c>
       <c r="F7">
-        <v>0.02060705805814607</v>
+        <v>0.02006476705661591</v>
       </c>
       <c r="G7">
-        <v>0.5184093319587323</v>
+        <v>0.5210329672177619</v>
       </c>
       <c r="H7">
         <v>0</v>
@@ -582,25 +582,25 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>0.05462008087065725</v>
+        <v>0.05368239707888631</v>
       </c>
       <c r="C8">
-        <v>0.1516983162656773</v>
+        <v>0.1494024393721274</v>
       </c>
       <c r="D8">
-        <v>0.1230441326949445</v>
+        <v>0.1212711749278065</v>
       </c>
       <c r="E8">
-        <v>0.05100429117843325</v>
+        <v>0.04911524335700979</v>
       </c>
       <c r="F8">
-        <v>0.05732768651294895</v>
+        <v>0.06083608088974201</v>
       </c>
       <c r="G8">
         <v>0</v>
       </c>
       <c r="H8">
-        <v>0.4508146878621778</v>
+        <v>0.4492377569289047</v>
       </c>
     </row>
   </sheetData>
